--- a/Data/EC/NIT-9000325676.xlsx
+++ b/Data/EC/NIT-9000325676.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0785D1DC-A4F9-4507-A499-7B4028209BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3386860E-6925-4A18-A094-4E733AC8994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A02CBAC5-5303-4A37-8ACC-0747DEC96451}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6B6BBB56-C26C-4A99-93FC-3DA15AE29D78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,67 +71,70 @@
     <t>MARIA ALEJANDRA PEREZ CASTAÑO</t>
   </si>
   <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6373D44A-D1A8-F37A-260B-3FE3302B6CC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76424F85-30FC-06A4-C4E2-71BC01077BFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,8 +899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D12B6-B0A5-47C4-9BE0-B3F7CD417C7B}">
-  <dimension ref="B2:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F276C40-FE0D-4A7F-A75E-15CAD6ADF583}">
+  <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -921,7 +924,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -966,7 +969,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -998,12 +1001,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>945013</v>
+        <v>991413</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1014,17 +1017,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1051,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1074,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>17013</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1521,42 +1524,54 @@
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="22" t="s">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="24">
-        <v>17013</v>
-      </c>
-      <c r="G36" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="H41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="F36" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G37" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" s="32"/>
       <c r="H42" s="1" t="s">
@@ -1565,12 +1580,23 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
